--- a/reference/SSI_2019_Kathleen.xlsx
+++ b/reference/SSI_2019_Kathleen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chinalifefranklinamc.sharepoint.com/Shared Documents/Settlement/China Life Franklin Global Fixed Income opportunities SP/PB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\boci_trustee\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{4B547266-60BE-48DC-8FDE-DBE1130C27A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F9E5BFF-B222-42B0-9B77-596C4F5B0D8C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD97D63D-88CA-462A-A1FE-0D98D9E57561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C5F99E-5D2F-4E75-A3B3-669F5A0CCC4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C5F99E-5D2F-4E75-A3B3-669F5A0CCC4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
   <si>
     <t>Bank of America-Merrill Lynch</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -859,16 +859,28 @@
     <t>29121</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>BOC Group</t>
+  </si>
+  <si>
+    <t>BKCHHKHKXXX</t>
+  </si>
+  <si>
+    <t>25985</t>
+  </si>
+  <si>
+    <t>BOCG-FI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -880,7 +892,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -947,7 +959,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1019,7 +1031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1090,13 +1102,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,6 +1210,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,10 +1229,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1507,13 +1528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D865B-7AD9-4C1B-8C26-7806B59DCDE0}">
-  <dimension ref="A2:L38"/>
+  <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -1527,7 +1548,7 @@
     <col min="12" max="12" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="23" t="s">
         <v>186</v>
       </c>
@@ -1535,7 +1556,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>152</v>
       </c>
@@ -1567,7 +1588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>174</v>
       </c>
@@ -1599,7 +1620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>178</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>155</v>
       </c>
@@ -1663,7 +1684,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>154</v>
       </c>
@@ -1695,7 +1716,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>153</v>
       </c>
@@ -1727,7 +1748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>164</v>
       </c>
@@ -1759,7 +1780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>157</v>
       </c>
@@ -1791,7 +1812,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>157</v>
       </c>
@@ -1823,7 +1844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" customHeight="1">
       <c r="A12" s="24" t="s">
         <v>196</v>
       </c>
@@ -1840,7 +1861,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="21" t="s">
         <v>199</v>
       </c>
@@ -1857,7 +1878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="21" t="s">
         <v>160</v>
       </c>
@@ -1877,7 +1898,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="21" t="s">
         <v>159</v>
       </c>
@@ -1910,7 +1931,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="21" t="s">
         <v>162</v>
       </c>
@@ -1945,7 +1966,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="21" t="s">
         <v>156</v>
       </c>
@@ -1978,7 +1999,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="21" t="s">
         <v>192</v>
       </c>
@@ -2013,7 +2034,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="21" t="s">
         <v>163</v>
       </c>
@@ -2048,7 +2069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="21" t="s">
         <v>166</v>
       </c>
@@ -2083,7 +2104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="21" t="s">
         <v>165</v>
       </c>
@@ -2116,7 +2137,7 @@
       </c>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="21" t="s">
         <v>168</v>
       </c>
@@ -2149,7 +2170,7 @@
       </c>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="21" t="s">
         <v>169</v>
       </c>
@@ -2182,7 +2203,7 @@
       </c>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="21" t="s">
         <v>170</v>
       </c>
@@ -2215,7 +2236,7 @@
       </c>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>171</v>
       </c>
@@ -2248,7 +2269,7 @@
       </c>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1">
       <c r="A26" s="21" t="s">
         <v>172</v>
       </c>
@@ -2281,7 +2302,7 @@
       </c>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>172</v>
       </c>
@@ -2298,7 +2319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>172</v>
       </c>
@@ -2315,7 +2336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>187</v>
       </c>
@@ -2332,7 +2353,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>176</v>
       </c>
@@ -2349,7 +2370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>190</v>
       </c>
@@ -2366,7 +2387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.75" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>189</v>
       </c>
@@ -2383,7 +2404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75">
       <c r="A33" s="21" t="s">
         <v>177</v>
       </c>
@@ -2400,7 +2421,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="21" t="s">
         <v>180</v>
       </c>
@@ -2417,7 +2438,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="21" t="s">
         <v>181</v>
       </c>
@@ -2434,7 +2455,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="21" t="s">
         <v>188</v>
       </c>
@@ -2451,7 +2472,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="21" t="s">
         <v>167</v>
       </c>
@@ -2468,7 +2489,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="21" t="s">
         <v>191</v>
       </c>
@@ -2483,6 +2504,23 @@
       </c>
       <c r="E38" s="5" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2534,8 +2572,8 @@
     <protectedRange sqref="B36:E36" name="範圍1_1_38"/>
     <protectedRange sqref="B37:E37" name="範圍1_25"/>
     <protectedRange sqref="B37:E37" name="範圍1_1_39"/>
-    <protectedRange sqref="B38:E38" name="範圍1_26"/>
-    <protectedRange sqref="B38:E38" name="範圍1_1_41"/>
+    <protectedRange sqref="B38:E38 D39" name="範圍1_26"/>
+    <protectedRange sqref="B38:E38 D39" name="範圍1_1_41"/>
     <protectedRange sqref="B13:E13 D12" name="範圍1_2_2"/>
   </protectedRanges>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2551,15 +2589,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8620B0A8236364B9743DE1823B25236" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c04cc1bc820570136c7b5c2afe2ac14d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="246c4773-83cf-47f2-bee1-105c2a3ad29b" xmlns:ns3="be76df56-b149-4c2e-b58b-7ced55adbc32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="34f42d04d1028d6d13c4b168b2064da5" ns2:_="" ns3:_="">
     <xsd:import namespace="246c4773-83cf-47f2-bee1-105c2a3ad29b"/>
@@ -2776,6 +2805,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E065E705-9E49-4B02-82C1-95AA76EBD285}">
   <ds:schemaRefs>
@@ -2794,13 +2832,28 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A72D3E-2FD7-47ED-8D57-FDFD4B6D5C7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="246c4773-83cf-47f2-bee1-105c2a3ad29b"/>
+    <ds:schemaRef ds:uri="be76df56-b149-4c2e-b58b-7ced55adbc32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B7A789-0F8C-4897-B087-5E05759D4D93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A72D3E-2FD7-47ED-8D57-FDFD4B6D5C7F}"/>
 </file>
--- a/reference/SSI_2019_Kathleen.xlsx
+++ b/reference/SSI_2019_Kathleen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\boci_trustee\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chinalifefranklinamc-my.sharepoint.com/personal/kathleen_quah_clamc_com_hk/Documents/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD97D63D-88CA-462A-A1FE-0D98D9E57561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3239E1EF-719A-454C-8929-D1604A80C518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B3E0EA9-B905-4F2B-98F7-B6E36E31DFD2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C5F99E-5D2F-4E75-A3B3-669F5A0CCC4C}"/>
   </bookViews>
@@ -36,54 +36,6 @@
     <author>Kathleen Quah</author>
   </authors>
   <commentList>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{A793773C-AE58-4C46-8308-7B9DEAF7AD0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kathleen Quah:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-changed 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{98C7F9F6-1F11-465D-BA6A-1A655EEC1102}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kathleen Quah:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-changed to 93827 27/09/2019</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E27" authorId="0" shapeId="0" xr:uid="{6F51A2AC-0C20-4717-8892-E693A4CD3AFE}">
       <text>
         <r>
@@ -114,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="203">
   <si>
     <t>Bank of America-Merrill Lynch</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -386,13 +338,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">JPMSGB2LXXX </t>
-  </si>
-  <si>
-    <t>20411</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>JPMSGB2LXXX</t>
   </si>
   <si>
@@ -860,27 +805,28 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BOC Group</t>
-  </si>
-  <si>
-    <t>BKCHHKHKXXX</t>
-  </si>
-  <si>
-    <t>25985</t>
-  </si>
-  <si>
-    <t>BOCG-FI</t>
+    <t>29290</t>
+  </si>
+  <si>
+    <t>22198</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WELLS-FI</t>
+  </si>
+  <si>
+    <t>WELLS FARGO SECURITIES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -892,7 +838,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -959,7 +905,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -969,20 +915,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1031,7 +963,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1102,22 +1034,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,14 +1126,10 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1530,11 +1449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D865B-7AD9-4C1B-8C26-7806B59DCDE0}">
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -1548,17 +1467,17 @@
     <col min="12" max="12" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1573,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
@@ -1588,9 +1507,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1605,24 +1524,24 @@
         <v>3</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -1637,24 +1556,24 @@
         <v>11</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -1669,24 +1588,24 @@
         <v>14</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -1701,24 +1620,24 @@
         <v>17</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -1733,24 +1652,24 @@
         <v>20</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1">
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
@@ -1765,24 +1684,24 @@
         <v>24</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
@@ -1797,24 +1716,24 @@
         <v>28</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>26</v>
@@ -1829,698 +1748,696 @@
         <v>30</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1">
-      <c r="A12" s="24" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="21" t="s">
-        <v>199</v>
-      </c>
       <c r="B13" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>157</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="21" t="s">
+      <c r="J17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="J18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="G23" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="21" t="s">
+      <c r="J23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="21" t="s">
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="H26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>203</v>
+      <c r="E39" s="25" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2539,24 +2456,24 @@
     <protectedRange sqref="C11" name="範圍1_1_1_1"/>
     <protectedRange sqref="C12 E12" name="範圍1_9"/>
     <protectedRange sqref="B12:C12 E12" name="範圍1_1_10"/>
-    <protectedRange sqref="B14:E14" name="範圍1_1_11"/>
-    <protectedRange sqref="B15:E15" name="範圍1_1_12"/>
-    <protectedRange sqref="B16:E16" name="範圍1_1_13"/>
-    <protectedRange sqref="B17:E17" name="範圍1_10"/>
-    <protectedRange sqref="B17:E17" name="範圍1_1_14"/>
-    <protectedRange sqref="B18:E18" name="範圍1_11"/>
-    <protectedRange sqref="B18:E18" name="範圍1_1_15"/>
-    <protectedRange sqref="B19:E19" name="範圍1_13"/>
-    <protectedRange sqref="B19:E19" name="範圍1_1_18"/>
-    <protectedRange sqref="B20:E20" name="範圍1_1_19"/>
-    <protectedRange sqref="B22:E22" name="範圍1_14"/>
-    <protectedRange sqref="B22:E22" name="範圍1_1_20"/>
+    <protectedRange sqref="B15:E15" name="範圍1_1_11"/>
+    <protectedRange sqref="B16:E16" name="範圍1_1_12"/>
+    <protectedRange sqref="B17:E17" name="範圍1_1_13"/>
+    <protectedRange sqref="B18:E18" name="範圍1_10"/>
+    <protectedRange sqref="B18:E18" name="範圍1_1_14"/>
+    <protectedRange sqref="B19:E19" name="範圍1_11"/>
+    <protectedRange sqref="B19:E19" name="範圍1_1_15"/>
+    <protectedRange sqref="B20:E20" name="範圍1_13"/>
+    <protectedRange sqref="B20:E20" name="範圍1_1_18"/>
+    <protectedRange sqref="B21:E21" name="範圍1_1_19"/>
+    <protectedRange sqref="B23:E23" name="範圍1_14"/>
+    <protectedRange sqref="B23:E23" name="範圍1_1_20"/>
     <protectedRange sqref="H4:K4 H7:H8" name="範圍1_17"/>
     <protectedRange sqref="H6:K8 I10:I11 H4:K4 H11 K10:K11" name="範圍1_1_27"/>
     <protectedRange sqref="H25:H26" name="範圍1_18"/>
     <protectedRange sqref="H22:K26 H15:K18" name="範圍1_1_28"/>
-    <protectedRange sqref="B21:E21" name="範圍1_19"/>
-    <protectedRange sqref="B21:E21" name="範圍1_1_29"/>
+    <protectedRange sqref="B22:E22" name="範圍1_19"/>
+    <protectedRange sqref="B22:E22" name="範圍1_1_29"/>
     <protectedRange sqref="B29:E29" name="範圍1_1_30"/>
     <protectedRange sqref="B30:E30" name="範圍1_1_31"/>
     <protectedRange sqref="B32:E32" name="範圍1_20"/>
@@ -2572,20 +2489,24 @@
     <protectedRange sqref="B36:E36" name="範圍1_1_38"/>
     <protectedRange sqref="B37:E37" name="範圍1_25"/>
     <protectedRange sqref="B37:E37" name="範圍1_1_39"/>
-    <protectedRange sqref="B38:E38 D39" name="範圍1_26"/>
-    <protectedRange sqref="B38:E38 D39" name="範圍1_1_41"/>
-    <protectedRange sqref="B13:E13 D12" name="範圍1_2_2"/>
+    <protectedRange sqref="B38:E38 D39:E39" name="範圍1_26"/>
+    <protectedRange sqref="B38:E38 D39:E39" name="範圍1_1_41"/>
+    <protectedRange sqref="D12 B13:E14" name="範圍1_2_2"/>
   </protectedRanges>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2806,27 +2727,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E065E705-9E49-4B02-82C1-95AA76EBD285}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B7A789-0F8C-4897-B087-5E05759D4D93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="246c4773-83cf-47f2-bee1-105c2a3ad29b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="be76df56-b149-4c2e-b58b-7ced55adbc32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2851,9 +2760,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B7A789-0F8C-4897-B087-5E05759D4D93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E065E705-9E49-4B02-82C1-95AA76EBD285}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="246c4773-83cf-47f2-bee1-105c2a3ad29b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="be76df56-b149-4c2e-b58b-7ced55adbc32"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>